--- a/target/classes/TestWorksheet.xlsx
+++ b/target/classes/TestWorksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Input #</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Sign in</t>
+  </si>
+  <si>
+    <t>Redirecting to Plant</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +497,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>

--- a/target/classes/TestWorksheet.xlsx
+++ b/target/classes/TestWorksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Input #</t>
   </si>
@@ -36,9 +36,6 @@
     <t>http://www.autotrader.co.uk/</t>
   </si>
   <si>
-    <t>NG15 6TF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Within 30 miles </t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>value Car</t>
   </si>
   <si>
-    <t>HD54 LTF</t>
-  </si>
-  <si>
     <t>shreya.gund@qa.com</t>
   </si>
   <si>
@@ -61,13 +55,31 @@
   </si>
   <si>
     <t>Redirecting to Plant</t>
+  </si>
+  <si>
+    <t>NG156TF</t>
+  </si>
+  <si>
+    <t>HD54LTF</t>
+  </si>
+  <si>
+    <t>http://plant.autotrader.co.uk/</t>
+  </si>
+  <si>
+    <t>Contact Us Address</t>
+  </si>
+  <si>
+    <t>Auto Trader</t>
+  </si>
+  <si>
+    <t>M15 4FN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +94,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,9 +123,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +442,7 @@
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -464,13 +485,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -481,16 +502,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,18 +519,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,6 +583,23 @@
       </c>
       <c r="C11" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -557,6 +607,7 @@
     <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
